--- a/results/data/CG1.1.xlsx
+++ b/results/data/CG1.1.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>C INDUSTRIE</t>
+  </si>
   <si>
     <t xml:space="preserve">E DISTRIBUTIE VAN WATER; AFVAL-EN AFVALWATERBEHEER EN SANERING </t>
   </si>
@@ -22,6 +25,9 @@
     <t xml:space="preserve">G GROOT-EN DETAILHANDEL; REPARATIE VAN AUTO'S EN MOTORFIETSEN </t>
   </si>
   <si>
+    <t xml:space="preserve">K FINANCIËLE ACTIVITEITEN EN VERZEKERINGEN </t>
+  </si>
+  <si>
     <t xml:space="preserve">M VRIJE BEROEPEN EN WETENSCHAPPELIJKE EN TECHNISCHE ACTIVITEITEN </t>
   </si>
   <si>
@@ -34,7 +40,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>W UNKNOWN</t>
+    <t>ROUTE INZAMELING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S OVERIGE DIENSTEN </t>
   </si>
   <si>
     <t>MeldPeriodeJAAR</t>
@@ -413,15 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -444,161 +453,224 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>1073695.019</v>
+        <v>34745.231</v>
       </c>
       <c r="C2">
-        <v>182633.3230000001</v>
+        <v>748006.3029999996</v>
       </c>
       <c r="D2">
-        <v>35844.57699999998</v>
+        <v>104158.087</v>
       </c>
       <c r="E2">
-        <v>54271.20699999999</v>
+        <v>57339.679</v>
       </c>
       <c r="F2">
-        <v>272532.5599999999</v>
+        <v>40664.467</v>
       </c>
       <c r="G2">
-        <v>178503.621</v>
+        <v>34740.71900000002</v>
       </c>
       <c r="H2">
-        <v>44354.15099999997</v>
+        <v>128567.495</v>
+      </c>
+      <c r="I2">
+        <v>120049.539</v>
+      </c>
+      <c r="J2">
+        <v>529654.2749999999</v>
+      </c>
+      <c r="K2">
+        <v>43466.94300000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1095084.339</v>
+        <v>25664.922</v>
       </c>
       <c r="C3">
-        <v>199641.7429999998</v>
+        <v>737170.653</v>
       </c>
       <c r="D3">
-        <v>40801.262</v>
+        <v>82913.72200000002</v>
       </c>
       <c r="E3">
-        <v>50114.68600000001</v>
+        <v>59962.99900000001</v>
       </c>
       <c r="F3">
-        <v>271975.161</v>
+        <v>50404.33300000002</v>
       </c>
       <c r="G3">
-        <v>143068.421</v>
+        <v>32511.28399999999</v>
       </c>
       <c r="H3">
-        <v>26666.72100000001</v>
+        <v>157835.9609999999</v>
+      </c>
+      <c r="I3">
+        <v>99173.14699999998</v>
+      </c>
+      <c r="J3">
+        <v>538053.1150000003</v>
+      </c>
+      <c r="K3">
+        <v>43079.79</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1067210.491999999</v>
+        <v>28879.662</v>
       </c>
       <c r="C4">
-        <v>202760.379</v>
+        <v>720690.9629999996</v>
       </c>
       <c r="D4">
-        <v>41209.14200000001</v>
+        <v>79585.27499999992</v>
       </c>
       <c r="E4">
-        <v>47126.232</v>
+        <v>51864.666</v>
       </c>
       <c r="F4">
-        <v>272496.0829999999</v>
+        <v>52235.398</v>
       </c>
       <c r="G4">
-        <v>147013.865</v>
+        <v>32483.50600000002</v>
       </c>
       <c r="H4">
-        <v>48449.46400000001</v>
+        <v>174839.7639999999</v>
+      </c>
+      <c r="I4">
+        <v>123341.016</v>
+      </c>
+      <c r="J4">
+        <v>520607.6140000001</v>
+      </c>
+      <c r="K4">
+        <v>41367.22300000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1054498.897</v>
+        <v>35099.97099999998</v>
       </c>
       <c r="C5">
-        <v>200639.269</v>
+        <v>700839.1999999998</v>
       </c>
       <c r="D5">
-        <v>37391.29600000002</v>
+        <v>81785.68800000002</v>
       </c>
       <c r="E5">
-        <v>48121.84100000001</v>
+        <v>46912.32600000002</v>
       </c>
       <c r="F5">
-        <v>274123.213</v>
+        <v>56226.63100000002</v>
       </c>
       <c r="G5">
-        <v>159430.125</v>
+        <v>34692.66899999999</v>
       </c>
       <c r="H5">
-        <v>55364.89199999999</v>
+        <v>168733.342</v>
+      </c>
+      <c r="I5">
+        <v>136765.695</v>
+      </c>
+      <c r="J5">
+        <v>526426.5839999998</v>
+      </c>
+      <c r="K5">
+        <v>41816.752</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>1051977.701999999</v>
+        <v>48447.622</v>
       </c>
       <c r="C6">
-        <v>181731.6789999999</v>
+        <v>695208.6309999995</v>
       </c>
       <c r="D6">
-        <v>35972.863</v>
+        <v>82534.40599999999</v>
       </c>
       <c r="E6">
-        <v>46552.31100000001</v>
+        <v>56057.27100000003</v>
       </c>
       <c r="F6">
-        <v>280768.7699999999</v>
+        <v>71084.997</v>
       </c>
       <c r="G6">
-        <v>188319.3439999999</v>
+        <v>36254.30000000001</v>
       </c>
       <c r="H6">
-        <v>53767.29199999999</v>
+        <v>195480.117</v>
+      </c>
+      <c r="I6">
+        <v>129241.683</v>
+      </c>
+      <c r="J6">
+        <v>485015.3290000001</v>
+      </c>
+      <c r="K6">
+        <v>39440.93300000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>1116930.462000001</v>
+        <v>41879.069</v>
       </c>
       <c r="C7">
-        <v>146697.9010000002</v>
+        <v>804773.96</v>
       </c>
       <c r="D7">
-        <v>32089.94899999999</v>
+        <v>76443.864</v>
       </c>
       <c r="E7">
-        <v>39884.61800000003</v>
+        <v>54761.91900000003</v>
       </c>
       <c r="F7">
-        <v>332812.917</v>
+        <v>79418.52300000004</v>
       </c>
       <c r="G7">
-        <v>257028.306</v>
+        <v>39276.80599999998</v>
       </c>
       <c r="H7">
-        <v>33341.91700000001</v>
+        <v>291652.6330000002</v>
+      </c>
+      <c r="I7">
+        <v>139829.306</v>
+      </c>
+      <c r="J7">
+        <v>392233.8750000002</v>
+      </c>
+      <c r="K7">
+        <v>38063.21500000001</v>
       </c>
     </row>
   </sheetData>
